--- a/excel/excel_data_0509.xlsx
+++ b/excel/excel_data_0509.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alpaco\class\2_Excel_basic\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\github\test_hana\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E273672-51D1-4569-8D02-1CDDC20E6F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D3995-E02E-4D83-8D92-9F010C3665B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gig" sheetId="1" r:id="rId1"/>
@@ -506,14 +506,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -17880,7 +17873,7 @@
         <v>3</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F151" si="2">COUNTBLANK(B131:E131)</f>
+        <f t="shared" ref="F131:F150" si="2">COUNTBLANK(B131:E131)</f>
         <v>0</v>
       </c>
     </row>
@@ -18358,7 +18351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE40E0E6-B9FD-4FB3-BB76-89373C98DEF9}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -31326,7 +31319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4D4944-3123-4083-90E1-EF391F1A183A}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
